--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +91,10 @@
     <t>Gfra2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.96201924070688</v>
+        <v>0.2159706666666667</v>
       </c>
       <c r="H2">
-        <v>1.96201924070688</v>
+        <v>0.647912</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05773722394873237</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08136311778596962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.436900869901384</v>
+        <v>0.4655053333333334</v>
       </c>
       <c r="N2">
-        <v>0.436900869901384</v>
+        <v>1.396516</v>
       </c>
       <c r="O2">
-        <v>0.04452676216633483</v>
+        <v>0.04241156985302927</v>
       </c>
       <c r="P2">
-        <v>0.04452676216633483</v>
+        <v>0.05636769901858361</v>
       </c>
       <c r="Q2">
-        <v>0.8572079130280887</v>
+        <v>0.1005354971768889</v>
       </c>
       <c r="R2">
-        <v>0.8572079130280887</v>
+        <v>0.9048194745920001</v>
       </c>
       <c r="S2">
-        <v>0.04452676216633483</v>
+        <v>0.002448726306621657</v>
       </c>
       <c r="T2">
-        <v>0.04452676216633483</v>
+        <v>0.004586251734573102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.96201924070688</v>
+        <v>0.2159706666666667</v>
       </c>
       <c r="H3">
-        <v>1.96201924070688</v>
+        <v>0.647912</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05773722394873237</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08136311778596962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.57134878607421</v>
+        <v>1.894866333333334</v>
       </c>
       <c r="N3">
-        <v>1.57134878607421</v>
+        <v>5.684599</v>
       </c>
       <c r="O3">
-        <v>0.1601440475357215</v>
+        <v>0.1726387435410409</v>
       </c>
       <c r="P3">
-        <v>0.1601440475357215</v>
+        <v>0.2294479730080725</v>
       </c>
       <c r="Q3">
-        <v>3.083016552138999</v>
+        <v>0.4092355452542223</v>
       </c>
       <c r="R3">
-        <v>3.083016552138999</v>
+        <v>3.683119907288</v>
       </c>
       <c r="S3">
-        <v>0.1601440475357215</v>
+        <v>0.009967681798056854</v>
       </c>
       <c r="T3">
-        <v>0.1601440475357215</v>
+        <v>0.01866860245360778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,805 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2159706666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.647912</v>
+      </c>
+      <c r="I4">
+        <v>0.05773722394873237</v>
+      </c>
+      <c r="J4">
+        <v>0.08136311778596962</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.2995026666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.8985080000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.02728728837013369</v>
+      </c>
+      <c r="P4">
+        <v>0.0362665579984687</v>
+      </c>
+      <c r="Q4">
+        <v>0.06468379058844445</v>
+      </c>
+      <c r="R4">
+        <v>0.5821541152960001</v>
+      </c>
+      <c r="S4">
+        <v>0.001575492279580049</v>
+      </c>
+      <c r="T4">
+        <v>0.002950760230121108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2159706666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.647912</v>
+      </c>
+      <c r="I5">
+        <v>0.05773722394873237</v>
+      </c>
+      <c r="J5">
+        <v>0.08136311778596962</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.163428</v>
+      </c>
+      <c r="N5">
+        <v>0.490284</v>
+      </c>
+      <c r="O5">
+        <v>0.01488970703795918</v>
+      </c>
+      <c r="P5">
+        <v>0.01978937652388318</v>
+      </c>
+      <c r="Q5">
+        <v>0.035295654112</v>
+      </c>
+      <c r="R5">
+        <v>0.317660887008</v>
+      </c>
+      <c r="S5">
+        <v>0.0008596903497816655</v>
+      </c>
+      <c r="T5">
+        <v>0.001610125373023609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2159706666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.647912</v>
+      </c>
+      <c r="I6">
+        <v>0.05773722394873237</v>
+      </c>
+      <c r="J6">
+        <v>0.08136311778596962</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.152602</v>
+      </c>
+      <c r="N6">
+        <v>16.305204</v>
+      </c>
+      <c r="O6">
+        <v>0.7427726911978368</v>
+      </c>
+      <c r="P6">
+        <v>0.6581283934509919</v>
+      </c>
+      <c r="Q6">
+        <v>1.760722889008</v>
+      </c>
+      <c r="R6">
+        <v>10.564337334048</v>
+      </c>
+      <c r="S6">
+        <v>0.04288563321469214</v>
+      </c>
+      <c r="T6">
+        <v>0.05354737799464401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2660856666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.798257</v>
+      </c>
+      <c r="I7">
+        <v>0.07113488124566801</v>
+      </c>
+      <c r="J7">
+        <v>0.1002430550977212</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4655053333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.396516</v>
+      </c>
+      <c r="O7">
+        <v>0.04241156985302927</v>
+      </c>
+      <c r="P7">
+        <v>0.05636769901858361</v>
+      </c>
+      <c r="Q7">
+        <v>0.1238642969568889</v>
+      </c>
+      <c r="R7">
+        <v>1.114778672612</v>
+      </c>
+      <c r="S7">
+        <v>0.003016941984937591</v>
+      </c>
+      <c r="T7">
+        <v>0.005650470358451642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2660856666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.798257</v>
+      </c>
+      <c r="I8">
+        <v>0.07113488124566801</v>
+      </c>
+      <c r="J8">
+        <v>0.1002430550977212</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.894866333333334</v>
+      </c>
+      <c r="N8">
+        <v>5.684599</v>
+      </c>
+      <c r="O8">
+        <v>0.1726387435410409</v>
+      </c>
+      <c r="P8">
+        <v>0.2294479730080725</v>
+      </c>
+      <c r="Q8">
+        <v>0.5041967715492223</v>
+      </c>
+      <c r="R8">
+        <v>4.537770943943</v>
+      </c>
+      <c r="S8">
+        <v>0.01228063652019328</v>
+      </c>
+      <c r="T8">
+        <v>0.02300056580030866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2660856666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.798257</v>
+      </c>
+      <c r="I9">
+        <v>0.07113488124566801</v>
+      </c>
+      <c r="J9">
+        <v>0.1002430550977212</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2995026666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.8985080000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.02728728837013369</v>
+      </c>
+      <c r="P9">
+        <v>0.0362665579984687</v>
+      </c>
+      <c r="Q9">
+        <v>0.07969336672844445</v>
+      </c>
+      <c r="R9">
+        <v>0.7172403005560001</v>
+      </c>
+      <c r="S9">
+        <v>0.001941078017725758</v>
+      </c>
+      <c r="T9">
+        <v>0.0036354705716452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2660856666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.798257</v>
+      </c>
+      <c r="I10">
+        <v>0.07113488124566801</v>
+      </c>
+      <c r="J10">
+        <v>0.1002430550977212</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.163428</v>
+      </c>
+      <c r="N10">
+        <v>0.490284</v>
+      </c>
+      <c r="O10">
+        <v>0.01488970703795918</v>
+      </c>
+      <c r="P10">
+        <v>0.01978937652388318</v>
+      </c>
+      <c r="Q10">
+        <v>0.043485848332</v>
+      </c>
+      <c r="R10">
+        <v>0.391372634988</v>
+      </c>
+      <c r="S10">
+        <v>0.001059177541928013</v>
+      </c>
+      <c r="T10">
+        <v>0.001983747561233172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2660856666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.798257</v>
+      </c>
+      <c r="I11">
+        <v>0.07113488124566801</v>
+      </c>
+      <c r="J11">
+        <v>0.1002430550977212</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.152602</v>
+      </c>
+      <c r="N11">
+        <v>16.305204</v>
+      </c>
+      <c r="O11">
+        <v>0.7427726911978368</v>
+      </c>
+      <c r="P11">
+        <v>0.6581283934509919</v>
+      </c>
+      <c r="Q11">
+        <v>2.169290538238</v>
+      </c>
+      <c r="R11">
+        <v>13.015743229428</v>
+      </c>
+      <c r="S11">
+        <v>0.05283704718088336</v>
+      </c>
+      <c r="T11">
+        <v>0.06597280080608252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.96201924070688</v>
-      </c>
-      <c r="H4">
-        <v>1.96201924070688</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.80384645533137</v>
-      </c>
-      <c r="N4">
-        <v>7.80384645533137</v>
-      </c>
-      <c r="O4">
-        <v>0.7953291902979437</v>
-      </c>
-      <c r="P4">
-        <v>0.7953291902979437</v>
-      </c>
-      <c r="Q4">
-        <v>15.31129689688233</v>
-      </c>
-      <c r="R4">
-        <v>15.31129689688233</v>
-      </c>
-      <c r="S4">
-        <v>0.7953291902979437</v>
-      </c>
-      <c r="T4">
-        <v>0.7953291902979437</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.258523</v>
+      </c>
+      <c r="H12">
+        <v>6.517046</v>
+      </c>
+      <c r="I12">
+        <v>0.8711278948055996</v>
+      </c>
+      <c r="J12">
+        <v>0.8183938271163091</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4655053333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.396516</v>
+      </c>
+      <c r="O12">
+        <v>0.04241156985302927</v>
+      </c>
+      <c r="P12">
+        <v>0.05636769901858361</v>
+      </c>
+      <c r="Q12">
+        <v>1.516859835289333</v>
+      </c>
+      <c r="R12">
+        <v>9.101159011736</v>
+      </c>
+      <c r="S12">
+        <v>0.03694590156147002</v>
+      </c>
+      <c r="T12">
+        <v>0.04613097692555886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.258523</v>
+      </c>
+      <c r="H13">
+        <v>6.517046</v>
+      </c>
+      <c r="I13">
+        <v>0.8711278948055996</v>
+      </c>
+      <c r="J13">
+        <v>0.8183938271163091</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.894866333333334</v>
+      </c>
+      <c r="N13">
+        <v>5.684599</v>
+      </c>
+      <c r="O13">
+        <v>0.1726387435410409</v>
+      </c>
+      <c r="P13">
+        <v>0.2294479730080725</v>
+      </c>
+      <c r="Q13">
+        <v>6.174465529092334</v>
+      </c>
+      <c r="R13">
+        <v>37.046793174554</v>
+      </c>
+      <c r="S13">
+        <v>0.1503904252227908</v>
+      </c>
+      <c r="T13">
+        <v>0.187778804754156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.258523</v>
+      </c>
+      <c r="H14">
+        <v>6.517046</v>
+      </c>
+      <c r="I14">
+        <v>0.8711278948055996</v>
+      </c>
+      <c r="J14">
+        <v>0.8183938271163091</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2995026666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.8985080000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.02728728837013369</v>
+      </c>
+      <c r="P14">
+        <v>0.0362665579984687</v>
+      </c>
+      <c r="Q14">
+        <v>0.9759363278946667</v>
+      </c>
+      <c r="R14">
+        <v>5.855617967368</v>
+      </c>
+      <c r="S14">
+        <v>0.02377071807282789</v>
+      </c>
+      <c r="T14">
+        <v>0.02968032719670239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.258523</v>
+      </c>
+      <c r="H15">
+        <v>6.517046</v>
+      </c>
+      <c r="I15">
+        <v>0.8711278948055996</v>
+      </c>
+      <c r="J15">
+        <v>0.8183938271163091</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.163428</v>
+      </c>
+      <c r="N15">
+        <v>0.490284</v>
+      </c>
+      <c r="O15">
+        <v>0.01488970703795918</v>
+      </c>
+      <c r="P15">
+        <v>0.01978937652388318</v>
+      </c>
+      <c r="Q15">
+        <v>0.532533896844</v>
+      </c>
+      <c r="R15">
+        <v>3.195203381064</v>
+      </c>
+      <c r="S15">
+        <v>0.0129708391462495</v>
+      </c>
+      <c r="T15">
+        <v>0.0161955035896264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.258523</v>
+      </c>
+      <c r="H16">
+        <v>6.517046</v>
+      </c>
+      <c r="I16">
+        <v>0.8711278948055996</v>
+      </c>
+      <c r="J16">
+        <v>0.8183938271163091</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.152602</v>
+      </c>
+      <c r="N16">
+        <v>16.305204</v>
+      </c>
+      <c r="O16">
+        <v>0.7427726911978368</v>
+      </c>
+      <c r="P16">
+        <v>0.6581283934509919</v>
+      </c>
+      <c r="Q16">
+        <v>26.565441126846</v>
+      </c>
+      <c r="R16">
+        <v>106.261764507384</v>
+      </c>
+      <c r="S16">
+        <v>0.6470500108022613</v>
+      </c>
+      <c r="T16">
+        <v>0.5386082146502654</v>
       </c>
     </row>
   </sheetData>
